--- a/Data_science_outputs/800pop/avg_analysis/avg_analysis_4.xlsx
+++ b/Data_science_outputs/800pop/avg_analysis/avg_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31833.82661918764</v>
+        <v>24394.16842128429</v>
       </c>
       <c r="C3" t="n">
         <v>18381.99558134923</v>
       </c>
       <c r="D3" t="n">
-        <v>7461.077846790351</v>
+        <v>1877.883891196729</v>
       </c>
       <c r="E3" t="n">
-        <v>5785.230031329918</v>
+        <v>4112.394024067734</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10037.73566636845</v>
+        <v>10186.37508745993</v>
       </c>
       <c r="C4" t="n">
         <v>9229.393277437453</v>
       </c>
       <c r="D4" t="n">
-        <v>6370.798885672451</v>
+        <v>1000.200061562998</v>
       </c>
       <c r="E4" t="n">
-        <v>3148.740126249663</v>
+        <v>1869.939638531676</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9938.187778082189</v>
+        <v>8864.980265753431</v>
       </c>
       <c r="C5" t="n">
         <v>5055.159857142858</v>
       </c>
       <c r="D5" t="n">
-        <v>313.9962575342457</v>
+        <v>307.5391671232867</v>
       </c>
       <c r="E5" t="n">
-        <v>1086.183983561645</v>
+        <v>1078.896005479453</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25973.1985171233</v>
+        <v>16292.75441095892</v>
       </c>
       <c r="C6" t="n">
         <v>11432.46803571429</v>
       </c>
       <c r="D6" t="n">
-        <v>970.6680027397255</v>
+        <v>920.8718075342466</v>
       </c>
       <c r="E6" t="n">
-        <v>2655.935721917809</v>
+        <v>2147.12578630137</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28122.73943835617</v>
+        <v>22603.73099452058</v>
       </c>
       <c r="C7" t="n">
         <v>15425.35857142857</v>
       </c>
       <c r="D7" t="n">
-        <v>7076.433972602748</v>
+        <v>1615.933397260274</v>
       </c>
       <c r="E7" t="n">
-        <v>5348.120905479452</v>
+        <v>4018.315223287673</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42421.33332054799</v>
+        <v>32155.58785958915</v>
       </c>
       <c r="C8" t="n">
         <v>25029.07739285723</v>
       </c>
       <c r="D8" t="n">
-        <v>14225.63639452055</v>
+        <v>2783.37747671233</v>
       </c>
       <c r="E8" t="n">
-        <v>9291.294609589037</v>
+        <v>6044.991489041099</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47784.77449863017</v>
+        <v>43301.83898630141</v>
       </c>
       <c r="C9" t="n">
         <v>37956.77657142859</v>
       </c>
       <c r="D9" t="n">
-        <v>14957.64503561648</v>
+        <v>3509.69724383562</v>
       </c>
       <c r="E9" t="n">
-        <v>11057.12346849314</v>
+        <v>7215.295767123282</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>45840710.33163017</v>
+        <v>35127602.52664935</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>26470073.63714289</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5838920643572227</v>
+        <v>0.7544381176757862</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>10743952.0993781</v>
+        <v>2704152.803323289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2343757769382721</v>
+        <v>0.07698085291393852</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>8330731.245115066</v>
+        <v>5921847.394657535</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1817321587045052</v>
+        <v>0.1685810294102753</v>
       </c>
     </row>
   </sheetData>
